--- a/documents/גנט-פרויקט גמר.xlsx
+++ b/documents/גנט-פרויקט גמר.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AAFB512-F134-4E67-88D9-6386E782F14F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0ADB382-25EB-41C9-A416-CB55568F1FC2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="415" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3283,8 +3283,8 @@
   </sheetPr>
   <dimension ref="A1:BL52"/>
   <sheetViews>
-    <sheetView showGridLines="0" rightToLeft="1" tabSelected="1" showRuler="0" topLeftCell="A6" zoomScale="40" zoomScaleNormal="40" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView showGridLines="0" rightToLeft="1" tabSelected="1" showRuler="0" topLeftCell="A9" zoomScale="40" zoomScaleNormal="40" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -10224,8 +10224,12 @@
       <c r="E34" s="55">
         <v>0</v>
       </c>
-      <c r="F34" s="56"/>
-      <c r="G34" s="57"/>
+      <c r="F34" s="56">
+        <v>44328</v>
+      </c>
+      <c r="G34" s="57">
+        <v>5</v>
+      </c>
       <c r="H34" s="10"/>
       <c r="I34" s="31" t="str">
         <f t="shared" ca="1" si="16"/>
@@ -10468,8 +10472,12 @@
       <c r="E35" s="55">
         <v>0</v>
       </c>
-      <c r="F35" s="61"/>
-      <c r="G35" s="4"/>
+      <c r="F35" s="61">
+        <v>44335</v>
+      </c>
+      <c r="G35" s="4">
+        <v>1</v>
+      </c>
       <c r="H35" s="11"/>
       <c r="I35" s="51"/>
       <c r="J35" s="51"/>
@@ -10541,8 +10549,12 @@
       <c r="E36" s="55">
         <v>0</v>
       </c>
-      <c r="F36" s="56"/>
-      <c r="G36" s="57"/>
+      <c r="F36" s="56">
+        <v>44334</v>
+      </c>
+      <c r="G36" s="57">
+        <v>1</v>
+      </c>
       <c r="H36" s="35"/>
       <c r="I36" s="51"/>
       <c r="J36" s="51"/>
@@ -11907,17 +11919,21 @@
       <c r="B43" s="59" t="s">
         <v>75</v>
       </c>
-      <c r="C43" s="60" t="s">
-        <v>14</v>
+      <c r="C43" s="54" t="s">
+        <v>18</v>
       </c>
       <c r="D43" s="60" t="s">
         <v>44</v>
       </c>
       <c r="E43" s="55">
-        <v>0</v>
-      </c>
-      <c r="F43" s="56"/>
-      <c r="G43" s="57"/>
+        <v>1</v>
+      </c>
+      <c r="F43" s="56">
+        <v>44308</v>
+      </c>
+      <c r="G43" s="57">
+        <v>1</v>
+      </c>
       <c r="I43" s="51" t="str">
         <f t="shared" ref="I43:AN43" ca="1" si="29">IF(AND($C43="מטרה",I$5&gt;=$F43,I$5&lt;=$F43+$G43-1),2,IF(AND($C43="אבן דרך",I$5&gt;=$F43,I$5&lt;=$F43+$G43-1),1,""))</f>
         <v/>
@@ -12156,8 +12172,12 @@
       <c r="E44" s="55">
         <v>0</v>
       </c>
-      <c r="F44" s="56"/>
-      <c r="G44" s="57"/>
+      <c r="F44" s="56">
+        <v>44328</v>
+      </c>
+      <c r="G44" s="57">
+        <v>5</v>
+      </c>
       <c r="I44" s="51"/>
       <c r="J44" s="51"/>
       <c r="K44" s="51"/>
@@ -13448,8 +13468,12 @@
       <c r="E50" s="55">
         <v>0</v>
       </c>
-      <c r="F50" s="56"/>
-      <c r="G50" s="57"/>
+      <c r="F50" s="56">
+        <v>44328</v>
+      </c>
+      <c r="G50" s="57">
+        <v>5</v>
+      </c>
       <c r="I50" s="51" t="str">
         <f t="shared" ref="I50:R51" ca="1" si="37">IF(AND($C50="מטרה",I$5&gt;=$F50,I$5&lt;=$F50+$G50-1),2,IF(AND($C50="אבן דרך",I$5&gt;=$F50,I$5&lt;=$F50+$G50-1),1,""))</f>
         <v/>
@@ -14218,7 +14242,7 @@
       <formula>AND(LEN($C50)=0,I$5&gt;=$F50,I$5&lt;=$F50+$G50-1)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C43:C44">
+  <conditionalFormatting sqref="C44">
     <cfRule type="uniqueValues" dxfId="30" priority="37"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E50">
@@ -14541,6 +14565,21 @@
           <xm:sqref>E51</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{4FA043CB-5C56-4198-8DA0-AE4DA15C1B51}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>E8:E27</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="97" id="{628A03C6-EE71-4B44-A6BA-69DC45906EA6}">
             <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
               <x14:cfvo type="percent">
@@ -14806,21 +14845,6 @@
           </x14:cfRule>
           <xm:sqref>BL35:BL36</xm:sqref>
         </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{4FA043CB-5C56-4198-8DA0-AE4DA15C1B51}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>E8:E27</xm:sqref>
-        </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
   </extLst>
